--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -484,6 +484,18 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>processedByMirth</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1666,10 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2276,13 +2288,21 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
   <si>
     <t>type</t>
   </si>
@@ -493,9 +493,6 @@
   </si>
   <si>
     <t>processed</t>
-  </si>
-  <si>
-    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1666,10 +1663,10 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28:XFD28"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2055,7 +2052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
@@ -2080,7 +2077,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
@@ -2103,7 +2100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>111</v>
       </c>
@@ -2115,7 +2112,7 @@
       <c r="G19" s="2"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>53</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>126</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2178,7 +2175,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -2221,7 +2218,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2241,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>151</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>156</v>
       </c>
@@ -2300,11 +2297,11 @@
       <c r="D28" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2313,7 +2310,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2323,7 +2320,7 @@
       <c r="G30" s="2"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2333,7 +2330,7 @@
       <c r="G31" s="2"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -393,9 +393,6 @@
     <t>. &lt;= today()</t>
   </si>
   <si>
-    <t>the migration date can not be in the future</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -493,6 +490,12 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>reason (other)</t>
+  </si>
+  <si>
+    <t>Date of migration can not be in the future</t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1666,10 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1798,47 +1801,38 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="b">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>1</v>
@@ -1847,38 +1841,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4" t="b">
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="b">
         <v>1</v>
       </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
@@ -1936,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M11" s="5" t="b">
         <v>1</v>
@@ -1959,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" s="5" t="b">
         <v>1</v>
@@ -1982,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2003,7 +2006,7 @@
       <c r="G14" s="2"/>
       <c r="I14" s="4"/>
       <c r="L14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -2026,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -2049,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -2074,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2097,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2129,7 +2132,7 @@
         <v>124</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="I20" s="17" t="b">
         <v>1</v>
@@ -2137,19 +2140,19 @@
     </row>
     <row r="21" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="I21" s="17" t="b">
         <v>1</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2172,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,7 +2232,7 @@
         <v>67</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2243,16 +2246,16 @@
     </row>
     <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2261,21 +2264,21 @@
         <v>1</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2286,16 +2289,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M28" s="5" t="b">
         <v>1</v>
@@ -2514,13 +2517,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2528,13 +2531,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,13 +2559,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2598,13 +2601,13 @@
         <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2707,100 +2710,100 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="13">
         <v>3</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="163">
   <si>
     <t>type</t>
   </si>
@@ -402,9 +402,6 @@
     <t>The migration date can not be prior or equal to the Birth date. Please go back and correct it.</t>
   </si>
   <si>
-    <t>${dateOfBirth}&gt;${dateOfMigration} and ../migrationType = 'EXTERNAL_INMIGRATION'</t>
-  </si>
-  <si>
     <t>${migrationType} = 'EXTERNAL_INMIGRATION'</t>
   </si>
   <si>
@@ -496,6 +493,18 @@
   </si>
   <si>
     <t>Date of migration can not be in the future</t>
+  </si>
+  <si>
+    <t>openhds</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>OpenHDS preloaded info</t>
+  </si>
+  <si>
+    <t>${dateOfBirth}&gt;${dateOfMigration} and (${migrationType} = 'EXTERNAL_INMIGRATION')</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +945,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -976,6 +991,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="351">
@@ -1663,13 +1684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1801,38 +1822,42 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>1</v>
@@ -1841,257 +1866,238 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="b">
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
       <c r="M7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="4" t="b">
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="b">
         <v>1</v>
       </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="I10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="I12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="M12" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="M13" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="L14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="M14" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>56</v>
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="I17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
+      <c r="A18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2100,116 +2106,121 @@
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="G19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="17" t="b">
+      <c r="H22" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+    <row r="23" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="17" t="b">
+      <c r="I23" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="4" t="b">
-        <v>1</v>
+      <c r="L23" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2218,21 +2229,21 @@
         <v>1</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>158</v>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2240,22 +2251,19 @@
       <c r="I25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2264,21 +2272,21 @@
         <v>1</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2286,42 +2294,69 @@
       <c r="I27" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M28" s="5" t="b">
+      <c r="L27" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="L28" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="I29" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
@@ -2331,7 +2366,6 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -2351,6 +2385,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2362,20 +2397,33 @@
       <c r="G34" s="2"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="3"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="3"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="3"/>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I57" s="3"/>
@@ -2386,11 +2434,11 @@
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I59" s="3"/>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="3"/>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="3"/>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I78" s="3"/>
@@ -2402,11 +2450,9 @@
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -2414,10 +2460,18 @@
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
       <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I86" s="3"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2517,13 +2571,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2531,13 +2585,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,13 +2613,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2601,13 +2655,13 @@
         <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2710,100 +2764,100 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="13">
         <v>3</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="165">
   <si>
     <t>type</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>${dateOfBirth}&gt;${dateOfMigration} and (${migrationType} = 'EXTERNAL_INMIGRATION')</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat(${individualId},'_',${migrationType},'_',${visitId},'_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -1686,11 +1692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3125,15 +3131,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -3143,8 +3149,11 @@
       <c r="C1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -3153,6 +3162,9 @@
       </c>
       <c r="C2" t="s">
         <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
   <si>
     <t>type</t>
   </si>
@@ -390,9 +390,6 @@
     <t>individualInfo</t>
   </si>
   <si>
-    <t>. &lt;= today()</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -504,19 +501,34 @@
     <t>OpenHDS preloaded info</t>
   </si>
   <si>
-    <t>${dateOfBirth}&gt;${dateOfMigration} and (${migrationType} = 'EXTERNAL_INMIGRATION')</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
     <t>concat(${individualId},'_',${migrationType},'_',${visitId},'_',${fieldWorkerId})</t>
+  </si>
+  <si>
+    <t>${dateOfBirth}&gt;=${dateOfMigration} and (${migrationType} = 'EXTERNAL_INMIGRATION')</t>
+  </si>
+  <si>
+    <t>Earliest migration date</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>earliestDate</t>
+  </si>
+  <si>
+    <t>. &lt;= today() and &gt; {earliestDate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -951,7 +963,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1002,6 +1014,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1690,13 +1705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1730,7 @@
     <col min="13" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1767,8 +1782,11 @@
       <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1788,7 +1806,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +1826,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1828,62 +1846,60 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="20">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>1</v>
@@ -1892,181 +1908,180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="b">
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
       <c r="M8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="4" t="b">
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="b">
         <v>1</v>
       </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="M13" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M14" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="L16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -2074,36 +2089,34 @@
         <v>21</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="L17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2112,144 +2125,144 @@
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
+      <c r="A19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="I19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="I20" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>127</v>
+      <c r="G23" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="I23" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="L23" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2257,19 +2270,22 @@
       <c r="I25" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L25" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2277,22 +2293,19 @@
       <c r="I26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2301,21 +2314,21 @@
         <v>1</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>145</v>
+        <v>67</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2324,21 +2337,21 @@
         <v>1</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2346,32 +2359,46 @@
       <c r="I29" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="L29" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="M30" s="5" t="b">
+      <c r="D31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -2381,7 +2408,6 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2411,6 +2437,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -2420,19 +2447,25 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I41" s="3"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="3"/>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I58" s="3"/>
@@ -2446,8 +2479,8 @@
     <row r="61" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I61" s="3"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="3"/>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I79" s="3"/>
@@ -2462,7 +2495,6 @@
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -2474,10 +2506,14 @@
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="3"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I87" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2577,13 +2613,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2591,13 +2627,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2619,13 +2655,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2661,13 +2697,13 @@
         <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2770,100 +2806,100 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="13">
         <v>3</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3133,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3150,7 +3186,7 @@
         <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -3164,7 +3200,7 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -519,7 +519,7 @@
     <t>earliestDate</t>
   </si>
   <si>
-    <t>. &lt;= today() and &gt; {earliestDate}</t>
+    <t>. &lt;= today() and . &gt; {earliestDate}</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1711,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
   <si>
     <t>type</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>. &lt;= today() and . &gt; {earliestDate}</t>
+  </si>
+  <si>
+    <t>2014-06-01</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1708,10 +1711,10 @@
   <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1860,8 +1863,8 @@
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="20">
-        <v>41791</v>
+      <c r="R5" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
   <si>
     <t>type</t>
   </si>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>. &lt;= today() and . &gt; {earliestDate}</t>
-  </si>
-  <si>
-    <t>2014-06-01</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1711,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1863,9 +1860,7 @@
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
   <si>
     <t>type</t>
   </si>
@@ -520,6 +520,36 @@
   </si>
   <si>
     <t>. &lt;= today() and . &gt; {earliestDate}</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>Christian Orthodox</t>
+  </si>
+  <si>
+    <t>Christian Catholic</t>
+  </si>
+  <si>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>Judaism</t>
+  </si>
+  <si>
+    <t>Traditional faith</t>
+  </si>
+  <si>
+    <t>select_one religion</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>HEALTH_REASON</t>
+  </si>
+  <si>
+    <t>Health Reasons</t>
   </si>
 </sst>
 </file>
@@ -1705,13 +1735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2199,91 +2229,91 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="I22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G24" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H24" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="I24" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="16" t="s">
+      <c r="I25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2291,19 +2321,22 @@
       <c r="I26" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L26" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2311,22 +2344,19 @@
       <c r="I27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2335,21 +2365,21 @@
         <v>1</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
+        <v>67</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2358,21 +2388,21 @@
         <v>1</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2380,32 +2410,46 @@
       <c r="I30" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="L30" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M31" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="M32" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2415,7 +2459,6 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2445,6 +2488,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -2454,19 +2498,25 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I42" s="3"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="3"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="3"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I59" s="3"/>
@@ -2480,8 +2530,8 @@
     <row r="62" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I62" s="3"/>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="3"/>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I80" s="3"/>
@@ -2496,7 +2546,6 @@
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -2508,10 +2557,14 @@
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I89" s="3"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2521,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2681,13 +2734,13 @@
         <v>66</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2695,13 +2748,13 @@
         <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2709,27 +2762,27 @@
         <v>66</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>86</v>
+        <v>132</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2737,13 +2790,13 @@
         <v>69</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2751,13 +2804,13 @@
         <v>69</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2765,13 +2818,13 @@
         <v>69</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2779,41 +2832,41 @@
         <v>69</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="13">
-        <v>888</v>
+      <c r="B19" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>138</v>
+        <v>69</v>
+      </c>
+      <c r="B20" s="13">
+        <v>888</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2821,13 +2874,13 @@
         <v>136</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2835,13 +2888,13 @@
         <v>136</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2849,27 +2902,27 @@
         <v>136</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="13">
-        <v>1</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2877,13 +2930,13 @@
         <v>149</v>
       </c>
       <c r="B25" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2891,50 +2944,98 @@
         <v>149</v>
       </c>
       <c r="B26" s="13">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="13">
         <v>3</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="13">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="13">
+        <v>3</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="13">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="13">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
@@ -3002,13 +3103,13 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
+    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -3156,6 +3257,12 @@
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <t>earliestDate</t>
   </si>
   <si>
-    <t>. &lt;= today() and . &gt; {earliestDate}</t>
-  </si>
-  <si>
     <t>religion</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>Health Reasons</t>
+  </si>
+  <si>
+    <t>. &lt;= today() and . &gt; ${earliestDate}</t>
   </si>
 </sst>
 </file>
@@ -1737,11 +1737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2229,16 +2229,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2276,7 +2276,7 @@
         <v>62</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>157</v>
@@ -2576,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2734,13 +2734,13 @@
         <v>66</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>177</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2969,72 +2969,72 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="13">
-        <v>1</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="D28" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="13">
         <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="13">
         <v>3</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="13">
         <v>4</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="13">
         <v>5</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -1738,10 +1738,10 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="AN25" sqref="AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2300,6 +2300,9 @@
       </c>
       <c r="L25" s="16" t="s">
         <v>163</v>
+      </c>
+      <c r="M25" s="16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/in_migration.xlsx
+++ b/xforms/xlsforms/in_migration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="25605" yWindow="-195" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="178">
   <si>
     <t>type</t>
   </si>
@@ -1737,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2579,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3041,10 +3041,18 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="13">
+        <v>99</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
